--- a/Project Management/02.設計書/プロジェクト管理.xlsx
+++ b/Project Management/02.設計書/プロジェクト管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\project\Project Management\02.設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B7CCA-B2B1-4F72-961C-C8FE2C505D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5FD902-5C23-491C-BBE4-95316F10CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 担当者</t>
   </si>
   <si>
-    <t>グループ 2</t>
+    <t>グループ II</t>
   </si>
 </sst>
 </file>
@@ -1559,24 +1559,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1622,6 +1604,24 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="34" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,23 +1634,17 @@
     <xf numFmtId="14" fontId="34" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1658,10 +1652,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1676,7 +1667,16 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,23 +1721,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2440,10 +2440,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="203" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -2466,8 +2466,8 @@
       <c r="Q1" s="177"/>
     </row>
     <row r="2" spans="1:17" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="205"/>
       <c r="D2" s="206"/>
       <c r="E2" s="206"/>
@@ -2752,10 +2752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="203" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -2777,8 +2777,8 @@
       <c r="P1" s="177"/>
     </row>
     <row r="2" spans="1:16" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="205"/>
       <c r="D2" s="206"/>
       <c r="E2" s="206"/>
@@ -2860,10 +2860,10 @@
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
       <c r="K8" s="79"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="211"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="23.4">
@@ -2878,10 +2878,10 @@
       <c r="I9" s="82"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="23.4">
@@ -2896,10 +2896,10 @@
       <c r="I10" s="82"/>
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="23.4">
@@ -2914,10 +2914,10 @@
       <c r="I11" s="82"/>
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="23.4">
@@ -2932,10 +2932,10 @@
       <c r="I12" s="82"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="209"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="23.4">
@@ -2977,100 +2977,100 @@
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="212"/>
+      <c r="O17" s="212"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="23.4">
       <c r="A18" s="8"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
       <c r="I18" s="82"/>
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" ht="23.4">
       <c r="A19" s="8"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81"/>
       <c r="I19" s="82"/>
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-      <c r="O19" s="210"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="58.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="83"/>
       <c r="C20" s="82"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81"/>
       <c r="I20" s="82"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="209"/>
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="23.4">
       <c r="A21" s="8"/>
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="82"/>
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
-      <c r="L21" s="210"/>
-      <c r="M21" s="210"/>
-      <c r="N21" s="210"/>
-      <c r="O21" s="210"/>
+      <c r="L21" s="209"/>
+      <c r="M21" s="209"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="209"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="23.4">
       <c r="A22" s="8"/>
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
       <c r="I22" s="82"/>
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="209"/>
+      <c r="O22" s="209"/>
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="23.4">
@@ -3085,10 +3085,10 @@
       <c r="I23" s="82"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
-      <c r="O23" s="210"/>
+      <c r="L23" s="209"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="209"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
@@ -3126,46 +3126,46 @@
       <c r="I29" s="79"/>
       <c r="J29" s="79"/>
       <c r="K29" s="79"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="212"/>
+      <c r="N29" s="212"/>
+      <c r="O29" s="212"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="23.4">
       <c r="A30" s="8"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
       <c r="I30" s="82"/>
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="210"/>
-      <c r="O30" s="210"/>
+      <c r="L30" s="209"/>
+      <c r="M30" s="209"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="23.4">
       <c r="A31" s="8"/>
       <c r="B31" s="79"/>
       <c r="C31" s="79"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
       <c r="I31" s="82"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="210"/>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="209"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="23.4">
@@ -3180,10 +3180,10 @@
       <c r="I32" s="82"/>
       <c r="J32" s="81"/>
       <c r="K32" s="81"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="210"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="209"/>
+      <c r="N32" s="209"/>
+      <c r="O32" s="209"/>
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" ht="23.4">
@@ -3198,10 +3198,10 @@
       <c r="I33" s="82"/>
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="209"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="209"/>
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" ht="23.4">
@@ -3216,10 +3216,10 @@
       <c r="I34" s="82"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="210"/>
-      <c r="O34" s="210"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="209"/>
+      <c r="N34" s="209"/>
+      <c r="O34" s="209"/>
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="23.4">
@@ -3234,10 +3234,10 @@
       <c r="I35" s="82"/>
       <c r="J35" s="81"/>
       <c r="K35" s="81"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="209"/>
+      <c r="N35" s="209"/>
+      <c r="O35" s="209"/>
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16">
@@ -3271,100 +3271,100 @@
       <c r="I40" s="79"/>
       <c r="J40" s="79"/>
       <c r="K40" s="79"/>
-      <c r="L40" s="211"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="211"/>
-      <c r="O40" s="211"/>
+      <c r="L40" s="212"/>
+      <c r="M40" s="212"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="212"/>
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="23.4">
       <c r="A41" s="8"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
       <c r="I41" s="82"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
-      <c r="L41" s="210"/>
-      <c r="M41" s="210"/>
-      <c r="N41" s="210"/>
-      <c r="O41" s="210"/>
+      <c r="L41" s="209"/>
+      <c r="M41" s="209"/>
+      <c r="N41" s="209"/>
+      <c r="O41" s="209"/>
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="23.4">
       <c r="A42" s="8"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="209"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="210"/>
       <c r="F42" s="81"/>
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
       <c r="I42" s="82"/>
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
-      <c r="L42" s="210"/>
-      <c r="M42" s="210"/>
-      <c r="N42" s="210"/>
-      <c r="O42" s="210"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="209"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" ht="23.4">
       <c r="A43" s="8"/>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="209"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
       <c r="H43" s="81"/>
       <c r="I43" s="82"/>
       <c r="J43" s="81"/>
       <c r="K43" s="81"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="210"/>
-      <c r="O43" s="210"/>
+      <c r="L43" s="209"/>
+      <c r="M43" s="209"/>
+      <c r="N43" s="209"/>
+      <c r="O43" s="209"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="23.4">
       <c r="A44" s="8"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="209"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="210"/>
       <c r="F44" s="81"/>
       <c r="G44" s="81"/>
       <c r="H44" s="81"/>
       <c r="I44" s="82"/>
       <c r="J44" s="81"/>
       <c r="K44" s="81"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="210"/>
+      <c r="L44" s="209"/>
+      <c r="M44" s="209"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="209"/>
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" ht="23.4">
       <c r="A45" s="8"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
       <c r="I45" s="82"/>
       <c r="J45" s="81"/>
       <c r="K45" s="84"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="210"/>
+      <c r="L45" s="209"/>
+      <c r="M45" s="209"/>
+      <c r="N45" s="209"/>
+      <c r="O45" s="209"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="23.4">
@@ -3379,10 +3379,10 @@
       <c r="I46" s="82"/>
       <c r="J46" s="81"/>
       <c r="K46" s="81"/>
-      <c r="L46" s="210"/>
-      <c r="M46" s="210"/>
-      <c r="N46" s="210"/>
-      <c r="O46" s="210"/>
+      <c r="L46" s="209"/>
+      <c r="M46" s="209"/>
+      <c r="N46" s="209"/>
+      <c r="O46" s="209"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="23.4">
@@ -3397,10 +3397,10 @@
       <c r="I47" s="82"/>
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
-      <c r="L47" s="210"/>
-      <c r="M47" s="210"/>
-      <c r="N47" s="210"/>
-      <c r="O47" s="210"/>
+      <c r="L47" s="209"/>
+      <c r="M47" s="209"/>
+      <c r="N47" s="209"/>
+      <c r="O47" s="209"/>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16">
@@ -3434,28 +3434,28 @@
       <c r="I52" s="79"/>
       <c r="J52" s="79"/>
       <c r="K52" s="79"/>
-      <c r="L52" s="211"/>
-      <c r="M52" s="211"/>
-      <c r="N52" s="211"/>
-      <c r="O52" s="211"/>
+      <c r="L52" s="212"/>
+      <c r="M52" s="212"/>
+      <c r="N52" s="212"/>
+      <c r="O52" s="212"/>
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" ht="23.4">
       <c r="A53" s="8"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="209"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="210"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
       <c r="I53" s="82"/>
       <c r="J53" s="81"/>
       <c r="K53" s="84"/>
-      <c r="L53" s="210"/>
-      <c r="M53" s="210"/>
-      <c r="N53" s="210"/>
-      <c r="O53" s="210"/>
+      <c r="L53" s="209"/>
+      <c r="M53" s="209"/>
+      <c r="N53" s="209"/>
+      <c r="O53" s="209"/>
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="23.4">
@@ -3470,10 +3470,10 @@
       <c r="I54" s="82"/>
       <c r="J54" s="81"/>
       <c r="K54" s="81"/>
-      <c r="L54" s="210"/>
-      <c r="M54" s="210"/>
-      <c r="N54" s="210"/>
-      <c r="O54" s="210"/>
+      <c r="L54" s="209"/>
+      <c r="M54" s="209"/>
+      <c r="N54" s="209"/>
+      <c r="O54" s="209"/>
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" ht="23.4">
@@ -3488,10 +3488,10 @@
       <c r="I55" s="82"/>
       <c r="J55" s="81"/>
       <c r="K55" s="81"/>
-      <c r="L55" s="214"/>
-      <c r="M55" s="214"/>
-      <c r="N55" s="214"/>
-      <c r="O55" s="214"/>
+      <c r="L55" s="213"/>
+      <c r="M55" s="213"/>
+      <c r="N55" s="213"/>
+      <c r="O55" s="213"/>
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="23.4">
@@ -3506,10 +3506,10 @@
       <c r="I56" s="82"/>
       <c r="J56" s="81"/>
       <c r="K56" s="81"/>
-      <c r="L56" s="210"/>
-      <c r="M56" s="210"/>
-      <c r="N56" s="210"/>
-      <c r="O56" s="210"/>
+      <c r="L56" s="209"/>
+      <c r="M56" s="209"/>
+      <c r="N56" s="209"/>
+      <c r="O56" s="209"/>
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="23.4">
@@ -3524,82 +3524,82 @@
       <c r="I57" s="82"/>
       <c r="J57" s="81"/>
       <c r="K57" s="81"/>
-      <c r="L57" s="210"/>
-      <c r="M57" s="210"/>
-      <c r="N57" s="210"/>
-      <c r="O57" s="210"/>
+      <c r="L57" s="209"/>
+      <c r="M57" s="209"/>
+      <c r="N57" s="209"/>
+      <c r="O57" s="209"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="64.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="85"/>
       <c r="C58" s="82"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="212"/>
+      <c r="D58" s="214"/>
+      <c r="E58" s="214"/>
       <c r="F58" s="81"/>
       <c r="G58" s="81"/>
       <c r="H58" s="81"/>
       <c r="I58" s="82"/>
       <c r="J58" s="81"/>
       <c r="K58" s="81"/>
-      <c r="L58" s="213"/>
-      <c r="M58" s="210"/>
-      <c r="N58" s="210"/>
-      <c r="O58" s="210"/>
+      <c r="L58" s="211"/>
+      <c r="M58" s="209"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="50" customFormat="1" ht="23.4">
       <c r="A59" s="8"/>
       <c r="B59" s="79"/>
       <c r="C59" s="79"/>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="210"/>
       <c r="F59" s="81"/>
       <c r="G59" s="81"/>
       <c r="H59" s="81"/>
       <c r="I59" s="82"/>
       <c r="J59" s="81"/>
       <c r="K59" s="81"/>
-      <c r="L59" s="210"/>
-      <c r="M59" s="210"/>
-      <c r="N59" s="210"/>
-      <c r="O59" s="210"/>
+      <c r="L59" s="209"/>
+      <c r="M59" s="209"/>
+      <c r="N59" s="209"/>
+      <c r="O59" s="209"/>
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="50" customFormat="1" ht="23.4">
       <c r="A60" s="8"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
-      <c r="D60" s="209"/>
-      <c r="E60" s="209"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="210"/>
       <c r="F60" s="81"/>
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="82"/>
       <c r="J60" s="81"/>
       <c r="K60" s="81"/>
-      <c r="L60" s="210"/>
-      <c r="M60" s="210"/>
-      <c r="N60" s="210"/>
-      <c r="O60" s="210"/>
+      <c r="L60" s="209"/>
+      <c r="M60" s="209"/>
+      <c r="N60" s="209"/>
+      <c r="O60" s="209"/>
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" ht="23.4">
       <c r="A61" s="8"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79"/>
-      <c r="D61" s="209"/>
-      <c r="E61" s="209"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="210"/>
       <c r="F61" s="81"/>
       <c r="G61" s="81"/>
       <c r="H61" s="81"/>
       <c r="I61" s="82"/>
       <c r="J61" s="81"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="210"/>
-      <c r="M61" s="210"/>
-      <c r="N61" s="210"/>
-      <c r="O61" s="210"/>
+      <c r="L61" s="209"/>
+      <c r="M61" s="209"/>
+      <c r="N61" s="209"/>
+      <c r="O61" s="209"/>
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" ht="23.4">
@@ -3614,10 +3614,10 @@
       <c r="I62" s="82"/>
       <c r="J62" s="81"/>
       <c r="K62" s="81"/>
-      <c r="L62" s="210"/>
-      <c r="M62" s="210"/>
-      <c r="N62" s="210"/>
-      <c r="O62" s="210"/>
+      <c r="L62" s="209"/>
+      <c r="M62" s="209"/>
+      <c r="N62" s="209"/>
+      <c r="O62" s="209"/>
       <c r="P62" s="9"/>
     </row>
     <row r="63" spans="1:16">
@@ -3651,64 +3651,64 @@
       <c r="I67" s="79"/>
       <c r="J67" s="79"/>
       <c r="K67" s="79"/>
-      <c r="L67" s="211"/>
-      <c r="M67" s="211"/>
-      <c r="N67" s="211"/>
-      <c r="O67" s="211"/>
+      <c r="L67" s="212"/>
+      <c r="M67" s="212"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="212"/>
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" ht="23.4">
       <c r="A68" s="8"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="209"/>
+      <c r="D68" s="210"/>
+      <c r="E68" s="210"/>
       <c r="F68" s="81"/>
       <c r="G68" s="81"/>
       <c r="H68" s="81"/>
       <c r="I68" s="82"/>
       <c r="J68" s="81"/>
       <c r="K68" s="84"/>
-      <c r="L68" s="210"/>
-      <c r="M68" s="210"/>
-      <c r="N68" s="210"/>
-      <c r="O68" s="210"/>
+      <c r="L68" s="209"/>
+      <c r="M68" s="209"/>
+      <c r="N68" s="209"/>
+      <c r="O68" s="209"/>
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" ht="23.4">
       <c r="A69" s="8"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
-      <c r="D69" s="209"/>
-      <c r="E69" s="209"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="210"/>
       <c r="F69" s="81"/>
       <c r="G69" s="81"/>
       <c r="H69" s="81"/>
       <c r="I69" s="82"/>
       <c r="J69" s="81"/>
       <c r="K69" s="81"/>
-      <c r="L69" s="210"/>
-      <c r="M69" s="210"/>
-      <c r="N69" s="210"/>
-      <c r="O69" s="210"/>
+      <c r="L69" s="209"/>
+      <c r="M69" s="209"/>
+      <c r="N69" s="209"/>
+      <c r="O69" s="209"/>
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="23.4">
       <c r="A70" s="8"/>
       <c r="B70" s="79"/>
       <c r="C70" s="79"/>
-      <c r="D70" s="209"/>
-      <c r="E70" s="209"/>
+      <c r="D70" s="210"/>
+      <c r="E70" s="210"/>
       <c r="F70" s="81"/>
       <c r="G70" s="81"/>
       <c r="H70" s="81"/>
       <c r="I70" s="82"/>
       <c r="J70" s="81"/>
       <c r="K70" s="81"/>
-      <c r="L70" s="210"/>
-      <c r="M70" s="210"/>
-      <c r="N70" s="210"/>
-      <c r="O70" s="210"/>
+      <c r="L70" s="209"/>
+      <c r="M70" s="209"/>
+      <c r="N70" s="209"/>
+      <c r="O70" s="209"/>
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" ht="23.4">
@@ -3723,10 +3723,10 @@
       <c r="I71" s="82"/>
       <c r="J71" s="81"/>
       <c r="K71" s="81"/>
-      <c r="L71" s="210"/>
-      <c r="M71" s="210"/>
-      <c r="N71" s="210"/>
-      <c r="O71" s="210"/>
+      <c r="L71" s="209"/>
+      <c r="M71" s="209"/>
+      <c r="N71" s="209"/>
+      <c r="O71" s="209"/>
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" ht="23.4">
@@ -3741,28 +3741,28 @@
       <c r="I72" s="82"/>
       <c r="J72" s="81"/>
       <c r="K72" s="81"/>
-      <c r="L72" s="210"/>
-      <c r="M72" s="210"/>
-      <c r="N72" s="210"/>
-      <c r="O72" s="210"/>
+      <c r="L72" s="209"/>
+      <c r="M72" s="209"/>
+      <c r="N72" s="209"/>
+      <c r="O72" s="209"/>
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" ht="23.4">
       <c r="A73" s="8"/>
       <c r="B73" s="85"/>
       <c r="C73" s="82"/>
-      <c r="D73" s="209"/>
-      <c r="E73" s="209"/>
+      <c r="D73" s="210"/>
+      <c r="E73" s="210"/>
       <c r="F73" s="81"/>
       <c r="G73" s="81"/>
       <c r="H73" s="81"/>
       <c r="I73" s="82"/>
       <c r="J73" s="81"/>
       <c r="K73" s="81"/>
-      <c r="L73" s="213"/>
-      <c r="M73" s="210"/>
-      <c r="N73" s="210"/>
-      <c r="O73" s="210"/>
+      <c r="L73" s="211"/>
+      <c r="M73" s="209"/>
+      <c r="N73" s="209"/>
+      <c r="O73" s="209"/>
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" ht="23.4">
@@ -3777,10 +3777,10 @@
       <c r="I74" s="82"/>
       <c r="J74" s="81"/>
       <c r="K74" s="81"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="210"/>
-      <c r="N74" s="210"/>
-      <c r="O74" s="210"/>
+      <c r="L74" s="209"/>
+      <c r="M74" s="209"/>
+      <c r="N74" s="209"/>
+      <c r="O74" s="209"/>
       <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16">
@@ -3814,154 +3814,154 @@
       <c r="I79" s="79"/>
       <c r="J79" s="79"/>
       <c r="K79" s="79"/>
-      <c r="L79" s="211"/>
-      <c r="M79" s="211"/>
-      <c r="N79" s="211"/>
-      <c r="O79" s="211"/>
+      <c r="L79" s="212"/>
+      <c r="M79" s="212"/>
+      <c r="N79" s="212"/>
+      <c r="O79" s="212"/>
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" ht="23.4">
       <c r="A80" s="8"/>
       <c r="B80" s="79"/>
       <c r="C80" s="79"/>
-      <c r="D80" s="209"/>
-      <c r="E80" s="209"/>
+      <c r="D80" s="210"/>
+      <c r="E80" s="210"/>
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
       <c r="H80" s="81"/>
       <c r="I80" s="82"/>
       <c r="J80" s="81"/>
       <c r="K80" s="84"/>
-      <c r="L80" s="210"/>
-      <c r="M80" s="210"/>
-      <c r="N80" s="210"/>
-      <c r="O80" s="210"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="209"/>
+      <c r="N80" s="209"/>
+      <c r="O80" s="209"/>
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" ht="23.4">
       <c r="A81" s="8"/>
       <c r="B81" s="79"/>
       <c r="C81" s="79"/>
-      <c r="D81" s="209"/>
-      <c r="E81" s="209"/>
+      <c r="D81" s="210"/>
+      <c r="E81" s="210"/>
       <c r="F81" s="81"/>
       <c r="G81" s="81"/>
       <c r="H81" s="81"/>
       <c r="I81" s="82"/>
       <c r="J81" s="81"/>
       <c r="K81" s="81"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="210"/>
-      <c r="O81" s="210"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="209"/>
+      <c r="N81" s="209"/>
+      <c r="O81" s="209"/>
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" ht="23.4">
       <c r="A82" s="8"/>
       <c r="B82" s="79"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="209"/>
+      <c r="D82" s="210"/>
+      <c r="E82" s="210"/>
       <c r="F82" s="81"/>
       <c r="G82" s="81"/>
       <c r="H82" s="81"/>
       <c r="I82" s="82"/>
       <c r="J82" s="81"/>
       <c r="K82" s="84"/>
-      <c r="L82" s="210"/>
-      <c r="M82" s="210"/>
-      <c r="N82" s="210"/>
-      <c r="O82" s="210"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="209"/>
+      <c r="N82" s="209"/>
+      <c r="O82" s="209"/>
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" ht="23.4">
       <c r="A83" s="8"/>
       <c r="B83" s="79"/>
       <c r="C83" s="79"/>
-      <c r="D83" s="209"/>
-      <c r="E83" s="209"/>
+      <c r="D83" s="210"/>
+      <c r="E83" s="210"/>
       <c r="F83" s="81"/>
       <c r="G83" s="81"/>
       <c r="H83" s="81"/>
       <c r="I83" s="82"/>
       <c r="J83" s="81"/>
       <c r="K83" s="81"/>
-      <c r="L83" s="210"/>
-      <c r="M83" s="210"/>
-      <c r="N83" s="210"/>
-      <c r="O83" s="210"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="209"/>
+      <c r="N83" s="209"/>
+      <c r="O83" s="209"/>
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" ht="23.4">
       <c r="A84" s="8"/>
       <c r="B84" s="79"/>
       <c r="C84" s="79"/>
-      <c r="D84" s="209"/>
-      <c r="E84" s="209"/>
+      <c r="D84" s="210"/>
+      <c r="E84" s="210"/>
       <c r="F84" s="81"/>
       <c r="G84" s="81"/>
       <c r="H84" s="81"/>
       <c r="I84" s="82"/>
       <c r="J84" s="81"/>
       <c r="K84" s="81"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="210"/>
-      <c r="N84" s="210"/>
-      <c r="O84" s="210"/>
+      <c r="L84" s="209"/>
+      <c r="M84" s="209"/>
+      <c r="N84" s="209"/>
+      <c r="O84" s="209"/>
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" ht="23.4">
       <c r="A85" s="8"/>
       <c r="B85" s="79"/>
       <c r="C85" s="79"/>
-      <c r="D85" s="209"/>
-      <c r="E85" s="209"/>
+      <c r="D85" s="210"/>
+      <c r="E85" s="210"/>
       <c r="F85" s="81"/>
       <c r="G85" s="81"/>
       <c r="H85" s="81"/>
       <c r="I85" s="82"/>
       <c r="J85" s="81"/>
       <c r="K85" s="81"/>
-      <c r="L85" s="210"/>
-      <c r="M85" s="210"/>
-      <c r="N85" s="210"/>
-      <c r="O85" s="210"/>
+      <c r="L85" s="209"/>
+      <c r="M85" s="209"/>
+      <c r="N85" s="209"/>
+      <c r="O85" s="209"/>
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" ht="23.4">
       <c r="A86" s="8"/>
       <c r="B86" s="85"/>
       <c r="C86" s="82"/>
-      <c r="D86" s="209"/>
-      <c r="E86" s="209"/>
+      <c r="D86" s="210"/>
+      <c r="E86" s="210"/>
       <c r="F86" s="81"/>
       <c r="G86" s="81"/>
       <c r="H86" s="81"/>
       <c r="I86" s="82"/>
       <c r="J86" s="81"/>
       <c r="K86" s="84"/>
-      <c r="L86" s="213"/>
-      <c r="M86" s="210"/>
-      <c r="N86" s="210"/>
-      <c r="O86" s="210"/>
+      <c r="L86" s="211"/>
+      <c r="M86" s="209"/>
+      <c r="N86" s="209"/>
+      <c r="O86" s="209"/>
       <c r="P86" s="9"/>
     </row>
     <row r="87" spans="1:16" ht="23.4">
       <c r="A87" s="8"/>
       <c r="B87" s="79"/>
       <c r="C87" s="79"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
+      <c r="D87" s="210"/>
+      <c r="E87" s="210"/>
       <c r="F87" s="81"/>
       <c r="G87" s="81"/>
       <c r="H87" s="81"/>
       <c r="I87" s="82"/>
       <c r="J87" s="81"/>
       <c r="K87" s="81"/>
-      <c r="L87" s="210"/>
-      <c r="M87" s="210"/>
-      <c r="N87" s="210"/>
-      <c r="O87" s="210"/>
+      <c r="L87" s="209"/>
+      <c r="M87" s="209"/>
+      <c r="N87" s="209"/>
+      <c r="O87" s="209"/>
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" ht="23.4">
@@ -3975,10 +3975,10 @@
       <c r="I88" s="82"/>
       <c r="J88" s="81"/>
       <c r="K88" s="81"/>
-      <c r="L88" s="210"/>
-      <c r="M88" s="210"/>
-      <c r="N88" s="210"/>
-      <c r="O88" s="210"/>
+      <c r="L88" s="209"/>
+      <c r="M88" s="209"/>
+      <c r="N88" s="209"/>
+      <c r="O88" s="209"/>
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" ht="16.2" thickBot="1">
@@ -4002,16 +4002,79 @@
     <row r="90" spans="1:16" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="L81:O81"/>
     <mergeCell ref="L82:O82"/>
@@ -4036,79 +4099,16 @@
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4139,10 +4139,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="203" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -4164,8 +4164,8 @@
       <c r="P1" s="177"/>
     </row>
     <row r="2" spans="1:16" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="205"/>
       <c r="D2" s="206"/>
       <c r="E2" s="206"/>
@@ -4242,10 +4242,10 @@
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
       <c r="K8" s="79"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="211"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="23.4">
@@ -4260,10 +4260,10 @@
       <c r="I9" s="82"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="23.4">
@@ -4278,10 +4278,10 @@
       <c r="I10" s="82"/>
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="23.4">
@@ -4296,10 +4296,10 @@
       <c r="I11" s="82"/>
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="23.4">
@@ -4314,10 +4314,10 @@
       <c r="I12" s="82"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="209"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="23.4">
@@ -4359,100 +4359,100 @@
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
+      <c r="L17" s="212"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="212"/>
+      <c r="O17" s="212"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="23.4">
       <c r="A18" s="8"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
       <c r="I18" s="82"/>
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" ht="23.4">
       <c r="A19" s="8"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
       <c r="H19" s="81"/>
       <c r="I19" s="82"/>
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-      <c r="O19" s="210"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="58.95" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="83"/>
       <c r="C20" s="82"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81"/>
       <c r="I20" s="82"/>
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="209"/>
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="23.4">
       <c r="A21" s="8"/>
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="82"/>
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
-      <c r="L21" s="210"/>
-      <c r="M21" s="210"/>
-      <c r="N21" s="210"/>
-      <c r="O21" s="210"/>
+      <c r="L21" s="209"/>
+      <c r="M21" s="209"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="209"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="23.4">
       <c r="A22" s="8"/>
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
       <c r="I22" s="82"/>
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="209"/>
+      <c r="O22" s="209"/>
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="23.4">
@@ -4467,10 +4467,10 @@
       <c r="I23" s="82"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
-      <c r="O23" s="210"/>
+      <c r="L23" s="209"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="209"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
@@ -4508,46 +4508,46 @@
       <c r="I29" s="79"/>
       <c r="J29" s="79"/>
       <c r="K29" s="79"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
+      <c r="L29" s="212"/>
+      <c r="M29" s="212"/>
+      <c r="N29" s="212"/>
+      <c r="O29" s="212"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="23.4">
       <c r="A30" s="8"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
       <c r="I30" s="82"/>
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="210"/>
-      <c r="O30" s="210"/>
+      <c r="L30" s="209"/>
+      <c r="M30" s="209"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="23.4">
       <c r="A31" s="8"/>
       <c r="B31" s="79"/>
       <c r="C31" s="79"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
       <c r="I31" s="82"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="210"/>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="209"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="23.4">
@@ -4562,10 +4562,10 @@
       <c r="I32" s="82"/>
       <c r="J32" s="81"/>
       <c r="K32" s="81"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="210"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="209"/>
+      <c r="N32" s="209"/>
+      <c r="O32" s="209"/>
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" ht="23.4">
@@ -4580,10 +4580,10 @@
       <c r="I33" s="82"/>
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="209"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="209"/>
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" ht="23.4">
@@ -4598,10 +4598,10 @@
       <c r="I34" s="82"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="210"/>
-      <c r="O34" s="210"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="209"/>
+      <c r="N34" s="209"/>
+      <c r="O34" s="209"/>
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="23.4">
@@ -4616,10 +4616,10 @@
       <c r="I35" s="82"/>
       <c r="J35" s="81"/>
       <c r="K35" s="81"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="209"/>
+      <c r="N35" s="209"/>
+      <c r="O35" s="209"/>
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16">
@@ -4653,100 +4653,100 @@
       <c r="I40" s="79"/>
       <c r="J40" s="79"/>
       <c r="K40" s="79"/>
-      <c r="L40" s="211"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="211"/>
-      <c r="O40" s="211"/>
+      <c r="L40" s="212"/>
+      <c r="M40" s="212"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="212"/>
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="23.4">
       <c r="A41" s="8"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210"/>
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
       <c r="I41" s="82"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
-      <c r="L41" s="210"/>
-      <c r="M41" s="210"/>
-      <c r="N41" s="210"/>
-      <c r="O41" s="210"/>
+      <c r="L41" s="209"/>
+      <c r="M41" s="209"/>
+      <c r="N41" s="209"/>
+      <c r="O41" s="209"/>
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="23.4">
       <c r="A42" s="8"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="209"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="210"/>
       <c r="F42" s="81"/>
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
       <c r="I42" s="82"/>
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
-      <c r="L42" s="210"/>
-      <c r="M42" s="210"/>
-      <c r="N42" s="210"/>
-      <c r="O42" s="210"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="209"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" ht="23.4">
       <c r="A43" s="8"/>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="209"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
       <c r="H43" s="81"/>
       <c r="I43" s="82"/>
       <c r="J43" s="81"/>
       <c r="K43" s="81"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="210"/>
-      <c r="O43" s="210"/>
+      <c r="L43" s="209"/>
+      <c r="M43" s="209"/>
+      <c r="N43" s="209"/>
+      <c r="O43" s="209"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="23.4">
       <c r="A44" s="8"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="209"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="210"/>
       <c r="F44" s="81"/>
       <c r="G44" s="81"/>
       <c r="H44" s="81"/>
       <c r="I44" s="82"/>
       <c r="J44" s="81"/>
       <c r="K44" s="81"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="210"/>
+      <c r="L44" s="209"/>
+      <c r="M44" s="209"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="209"/>
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" ht="23.4">
       <c r="A45" s="8"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
       <c r="I45" s="82"/>
       <c r="J45" s="81"/>
       <c r="K45" s="84"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="210"/>
+      <c r="L45" s="209"/>
+      <c r="M45" s="209"/>
+      <c r="N45" s="209"/>
+      <c r="O45" s="209"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="23.4">
@@ -4761,10 +4761,10 @@
       <c r="I46" s="82"/>
       <c r="J46" s="81"/>
       <c r="K46" s="81"/>
-      <c r="L46" s="210"/>
-      <c r="M46" s="210"/>
-      <c r="N46" s="210"/>
-      <c r="O46" s="210"/>
+      <c r="L46" s="209"/>
+      <c r="M46" s="209"/>
+      <c r="N46" s="209"/>
+      <c r="O46" s="209"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="23.4">
@@ -4779,10 +4779,10 @@
       <c r="I47" s="82"/>
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
-      <c r="L47" s="210"/>
-      <c r="M47" s="210"/>
-      <c r="N47" s="210"/>
-      <c r="O47" s="210"/>
+      <c r="L47" s="209"/>
+      <c r="M47" s="209"/>
+      <c r="N47" s="209"/>
+      <c r="O47" s="209"/>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16">
@@ -4816,28 +4816,28 @@
       <c r="I52" s="79"/>
       <c r="J52" s="79"/>
       <c r="K52" s="79"/>
-      <c r="L52" s="211"/>
-      <c r="M52" s="211"/>
-      <c r="N52" s="211"/>
-      <c r="O52" s="211"/>
+      <c r="L52" s="212"/>
+      <c r="M52" s="212"/>
+      <c r="N52" s="212"/>
+      <c r="O52" s="212"/>
       <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" ht="23.4">
       <c r="A53" s="8"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="209"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="210"/>
       <c r="F53" s="81"/>
       <c r="G53" s="81"/>
       <c r="H53" s="81"/>
       <c r="I53" s="82"/>
       <c r="J53" s="81"/>
       <c r="K53" s="84"/>
-      <c r="L53" s="210"/>
-      <c r="M53" s="210"/>
-      <c r="N53" s="210"/>
-      <c r="O53" s="210"/>
+      <c r="L53" s="209"/>
+      <c r="M53" s="209"/>
+      <c r="N53" s="209"/>
+      <c r="O53" s="209"/>
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="23.4">
@@ -4852,10 +4852,10 @@
       <c r="I54" s="82"/>
       <c r="J54" s="81"/>
       <c r="K54" s="81"/>
-      <c r="L54" s="210"/>
-      <c r="M54" s="210"/>
-      <c r="N54" s="210"/>
-      <c r="O54" s="210"/>
+      <c r="L54" s="209"/>
+      <c r="M54" s="209"/>
+      <c r="N54" s="209"/>
+      <c r="O54" s="209"/>
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" ht="23.4">
@@ -4870,10 +4870,10 @@
       <c r="I55" s="82"/>
       <c r="J55" s="81"/>
       <c r="K55" s="81"/>
-      <c r="L55" s="214"/>
-      <c r="M55" s="214"/>
-      <c r="N55" s="214"/>
-      <c r="O55" s="214"/>
+      <c r="L55" s="213"/>
+      <c r="M55" s="213"/>
+      <c r="N55" s="213"/>
+      <c r="O55" s="213"/>
       <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="23.4">
@@ -4888,10 +4888,10 @@
       <c r="I56" s="82"/>
       <c r="J56" s="81"/>
       <c r="K56" s="81"/>
-      <c r="L56" s="210"/>
-      <c r="M56" s="210"/>
-      <c r="N56" s="210"/>
-      <c r="O56" s="210"/>
+      <c r="L56" s="209"/>
+      <c r="M56" s="209"/>
+      <c r="N56" s="209"/>
+      <c r="O56" s="209"/>
       <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="23.4">
@@ -4906,82 +4906,82 @@
       <c r="I57" s="82"/>
       <c r="J57" s="81"/>
       <c r="K57" s="81"/>
-      <c r="L57" s="210"/>
-      <c r="M57" s="210"/>
-      <c r="N57" s="210"/>
-      <c r="O57" s="210"/>
+      <c r="L57" s="209"/>
+      <c r="M57" s="209"/>
+      <c r="N57" s="209"/>
+      <c r="O57" s="209"/>
       <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="64.95" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="85"/>
       <c r="C58" s="82"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="212"/>
+      <c r="D58" s="214"/>
+      <c r="E58" s="214"/>
       <c r="F58" s="81"/>
       <c r="G58" s="81"/>
       <c r="H58" s="81"/>
       <c r="I58" s="82"/>
       <c r="J58" s="81"/>
       <c r="K58" s="81"/>
-      <c r="L58" s="213"/>
-      <c r="M58" s="210"/>
-      <c r="N58" s="210"/>
-      <c r="O58" s="210"/>
+      <c r="L58" s="211"/>
+      <c r="M58" s="209"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" s="50" customFormat="1" ht="23.4">
       <c r="A59" s="8"/>
       <c r="B59" s="79"/>
       <c r="C59" s="79"/>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="210"/>
       <c r="F59" s="81"/>
       <c r="G59" s="81"/>
       <c r="H59" s="81"/>
       <c r="I59" s="82"/>
       <c r="J59" s="81"/>
       <c r="K59" s="81"/>
-      <c r="L59" s="210"/>
-      <c r="M59" s="210"/>
-      <c r="N59" s="210"/>
-      <c r="O59" s="210"/>
+      <c r="L59" s="209"/>
+      <c r="M59" s="209"/>
+      <c r="N59" s="209"/>
+      <c r="O59" s="209"/>
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" s="50" customFormat="1" ht="23.4">
       <c r="A60" s="8"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
-      <c r="D60" s="209"/>
-      <c r="E60" s="209"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="210"/>
       <c r="F60" s="81"/>
       <c r="G60" s="81"/>
       <c r="H60" s="81"/>
       <c r="I60" s="82"/>
       <c r="J60" s="81"/>
       <c r="K60" s="81"/>
-      <c r="L60" s="210"/>
-      <c r="M60" s="210"/>
-      <c r="N60" s="210"/>
-      <c r="O60" s="210"/>
+      <c r="L60" s="209"/>
+      <c r="M60" s="209"/>
+      <c r="N60" s="209"/>
+      <c r="O60" s="209"/>
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" ht="23.4">
       <c r="A61" s="8"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79"/>
-      <c r="D61" s="209"/>
-      <c r="E61" s="209"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="210"/>
       <c r="F61" s="81"/>
       <c r="G61" s="81"/>
       <c r="H61" s="81"/>
       <c r="I61" s="82"/>
       <c r="J61" s="81"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="210"/>
-      <c r="M61" s="210"/>
-      <c r="N61" s="210"/>
-      <c r="O61" s="210"/>
+      <c r="L61" s="209"/>
+      <c r="M61" s="209"/>
+      <c r="N61" s="209"/>
+      <c r="O61" s="209"/>
       <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" ht="23.4">
@@ -4996,10 +4996,10 @@
       <c r="I62" s="82"/>
       <c r="J62" s="81"/>
       <c r="K62" s="81"/>
-      <c r="L62" s="210"/>
-      <c r="M62" s="210"/>
-      <c r="N62" s="210"/>
-      <c r="O62" s="210"/>
+      <c r="L62" s="209"/>
+      <c r="M62" s="209"/>
+      <c r="N62" s="209"/>
+      <c r="O62" s="209"/>
       <c r="P62" s="9"/>
     </row>
     <row r="63" spans="1:16">
@@ -5033,64 +5033,64 @@
       <c r="I67" s="79"/>
       <c r="J67" s="79"/>
       <c r="K67" s="79"/>
-      <c r="L67" s="211"/>
-      <c r="M67" s="211"/>
-      <c r="N67" s="211"/>
-      <c r="O67" s="211"/>
+      <c r="L67" s="212"/>
+      <c r="M67" s="212"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="212"/>
       <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" ht="23.4">
       <c r="A68" s="8"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="209"/>
+      <c r="D68" s="210"/>
+      <c r="E68" s="210"/>
       <c r="F68" s="81"/>
       <c r="G68" s="81"/>
       <c r="H68" s="81"/>
       <c r="I68" s="82"/>
       <c r="J68" s="81"/>
       <c r="K68" s="84"/>
-      <c r="L68" s="210"/>
-      <c r="M68" s="210"/>
-      <c r="N68" s="210"/>
-      <c r="O68" s="210"/>
+      <c r="L68" s="209"/>
+      <c r="M68" s="209"/>
+      <c r="N68" s="209"/>
+      <c r="O68" s="209"/>
       <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" ht="23.4">
       <c r="A69" s="8"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
-      <c r="D69" s="209"/>
-      <c r="E69" s="209"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="210"/>
       <c r="F69" s="81"/>
       <c r="G69" s="81"/>
       <c r="H69" s="81"/>
       <c r="I69" s="82"/>
       <c r="J69" s="81"/>
       <c r="K69" s="81"/>
-      <c r="L69" s="210"/>
-      <c r="M69" s="210"/>
-      <c r="N69" s="210"/>
-      <c r="O69" s="210"/>
+      <c r="L69" s="209"/>
+      <c r="M69" s="209"/>
+      <c r="N69" s="209"/>
+      <c r="O69" s="209"/>
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="23.4">
       <c r="A70" s="8"/>
       <c r="B70" s="79"/>
       <c r="C70" s="79"/>
-      <c r="D70" s="209"/>
-      <c r="E70" s="209"/>
+      <c r="D70" s="210"/>
+      <c r="E70" s="210"/>
       <c r="F70" s="81"/>
       <c r="G70" s="81"/>
       <c r="H70" s="81"/>
       <c r="I70" s="82"/>
       <c r="J70" s="81"/>
       <c r="K70" s="81"/>
-      <c r="L70" s="210"/>
-      <c r="M70" s="210"/>
-      <c r="N70" s="210"/>
-      <c r="O70" s="210"/>
+      <c r="L70" s="209"/>
+      <c r="M70" s="209"/>
+      <c r="N70" s="209"/>
+      <c r="O70" s="209"/>
       <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" ht="23.4">
@@ -5105,10 +5105,10 @@
       <c r="I71" s="82"/>
       <c r="J71" s="81"/>
       <c r="K71" s="81"/>
-      <c r="L71" s="210"/>
-      <c r="M71" s="210"/>
-      <c r="N71" s="210"/>
-      <c r="O71" s="210"/>
+      <c r="L71" s="209"/>
+      <c r="M71" s="209"/>
+      <c r="N71" s="209"/>
+      <c r="O71" s="209"/>
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" ht="23.4">
@@ -5123,28 +5123,28 @@
       <c r="I72" s="82"/>
       <c r="J72" s="81"/>
       <c r="K72" s="81"/>
-      <c r="L72" s="210"/>
-      <c r="M72" s="210"/>
-      <c r="N72" s="210"/>
-      <c r="O72" s="210"/>
+      <c r="L72" s="209"/>
+      <c r="M72" s="209"/>
+      <c r="N72" s="209"/>
+      <c r="O72" s="209"/>
       <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" ht="23.4">
       <c r="A73" s="8"/>
       <c r="B73" s="85"/>
       <c r="C73" s="82"/>
-      <c r="D73" s="209"/>
-      <c r="E73" s="209"/>
+      <c r="D73" s="210"/>
+      <c r="E73" s="210"/>
       <c r="F73" s="81"/>
       <c r="G73" s="81"/>
       <c r="H73" s="81"/>
       <c r="I73" s="82"/>
       <c r="J73" s="81"/>
       <c r="K73" s="81"/>
-      <c r="L73" s="213"/>
-      <c r="M73" s="210"/>
-      <c r="N73" s="210"/>
-      <c r="O73" s="210"/>
+      <c r="L73" s="211"/>
+      <c r="M73" s="209"/>
+      <c r="N73" s="209"/>
+      <c r="O73" s="209"/>
       <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" ht="23.4">
@@ -5159,10 +5159,10 @@
       <c r="I74" s="82"/>
       <c r="J74" s="81"/>
       <c r="K74" s="81"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="210"/>
-      <c r="N74" s="210"/>
-      <c r="O74" s="210"/>
+      <c r="L74" s="209"/>
+      <c r="M74" s="209"/>
+      <c r="N74" s="209"/>
+      <c r="O74" s="209"/>
       <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16">
@@ -5196,154 +5196,154 @@
       <c r="I79" s="79"/>
       <c r="J79" s="79"/>
       <c r="K79" s="79"/>
-      <c r="L79" s="211"/>
-      <c r="M79" s="211"/>
-      <c r="N79" s="211"/>
-      <c r="O79" s="211"/>
+      <c r="L79" s="212"/>
+      <c r="M79" s="212"/>
+      <c r="N79" s="212"/>
+      <c r="O79" s="212"/>
       <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" ht="23.4">
       <c r="A80" s="8"/>
       <c r="B80" s="79"/>
       <c r="C80" s="79"/>
-      <c r="D80" s="209"/>
-      <c r="E80" s="209"/>
+      <c r="D80" s="210"/>
+      <c r="E80" s="210"/>
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
       <c r="H80" s="81"/>
       <c r="I80" s="82"/>
       <c r="J80" s="81"/>
       <c r="K80" s="84"/>
-      <c r="L80" s="210"/>
-      <c r="M80" s="210"/>
-      <c r="N80" s="210"/>
-      <c r="O80" s="210"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="209"/>
+      <c r="N80" s="209"/>
+      <c r="O80" s="209"/>
       <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" ht="23.4">
       <c r="A81" s="8"/>
       <c r="B81" s="79"/>
       <c r="C81" s="79"/>
-      <c r="D81" s="209"/>
-      <c r="E81" s="209"/>
+      <c r="D81" s="210"/>
+      <c r="E81" s="210"/>
       <c r="F81" s="81"/>
       <c r="G81" s="81"/>
       <c r="H81" s="81"/>
       <c r="I81" s="82"/>
       <c r="J81" s="81"/>
       <c r="K81" s="81"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="210"/>
-      <c r="O81" s="210"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="209"/>
+      <c r="N81" s="209"/>
+      <c r="O81" s="209"/>
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" ht="23.4">
       <c r="A82" s="8"/>
       <c r="B82" s="79"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="209"/>
+      <c r="D82" s="210"/>
+      <c r="E82" s="210"/>
       <c r="F82" s="81"/>
       <c r="G82" s="81"/>
       <c r="H82" s="81"/>
       <c r="I82" s="82"/>
       <c r="J82" s="81"/>
       <c r="K82" s="84"/>
-      <c r="L82" s="210"/>
-      <c r="M82" s="210"/>
-      <c r="N82" s="210"/>
-      <c r="O82" s="210"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="209"/>
+      <c r="N82" s="209"/>
+      <c r="O82" s="209"/>
       <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" ht="23.4">
       <c r="A83" s="8"/>
       <c r="B83" s="79"/>
       <c r="C83" s="79"/>
-      <c r="D83" s="209"/>
-      <c r="E83" s="209"/>
+      <c r="D83" s="210"/>
+      <c r="E83" s="210"/>
       <c r="F83" s="81"/>
       <c r="G83" s="81"/>
       <c r="H83" s="81"/>
       <c r="I83" s="82"/>
       <c r="J83" s="81"/>
       <c r="K83" s="81"/>
-      <c r="L83" s="210"/>
-      <c r="M83" s="210"/>
-      <c r="N83" s="210"/>
-      <c r="O83" s="210"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="209"/>
+      <c r="N83" s="209"/>
+      <c r="O83" s="209"/>
       <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" ht="23.4">
       <c r="A84" s="8"/>
       <c r="B84" s="79"/>
       <c r="C84" s="79"/>
-      <c r="D84" s="209"/>
-      <c r="E84" s="209"/>
+      <c r="D84" s="210"/>
+      <c r="E84" s="210"/>
       <c r="F84" s="81"/>
       <c r="G84" s="81"/>
       <c r="H84" s="81"/>
       <c r="I84" s="82"/>
       <c r="J84" s="81"/>
       <c r="K84" s="81"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="210"/>
-      <c r="N84" s="210"/>
-      <c r="O84" s="210"/>
+      <c r="L84" s="209"/>
+      <c r="M84" s="209"/>
+      <c r="N84" s="209"/>
+      <c r="O84" s="209"/>
       <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" ht="23.4">
       <c r="A85" s="8"/>
       <c r="B85" s="79"/>
       <c r="C85" s="79"/>
-      <c r="D85" s="209"/>
-      <c r="E85" s="209"/>
+      <c r="D85" s="210"/>
+      <c r="E85" s="210"/>
       <c r="F85" s="81"/>
       <c r="G85" s="81"/>
       <c r="H85" s="81"/>
       <c r="I85" s="82"/>
       <c r="J85" s="81"/>
       <c r="K85" s="81"/>
-      <c r="L85" s="210"/>
-      <c r="M85" s="210"/>
-      <c r="N85" s="210"/>
-      <c r="O85" s="210"/>
+      <c r="L85" s="209"/>
+      <c r="M85" s="209"/>
+      <c r="N85" s="209"/>
+      <c r="O85" s="209"/>
       <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" ht="23.4">
       <c r="A86" s="8"/>
       <c r="B86" s="85"/>
       <c r="C86" s="82"/>
-      <c r="D86" s="209"/>
-      <c r="E86" s="209"/>
+      <c r="D86" s="210"/>
+      <c r="E86" s="210"/>
       <c r="F86" s="81"/>
       <c r="G86" s="81"/>
       <c r="H86" s="81"/>
       <c r="I86" s="82"/>
       <c r="J86" s="81"/>
       <c r="K86" s="84"/>
-      <c r="L86" s="213"/>
-      <c r="M86" s="210"/>
-      <c r="N86" s="210"/>
-      <c r="O86" s="210"/>
+      <c r="L86" s="211"/>
+      <c r="M86" s="209"/>
+      <c r="N86" s="209"/>
+      <c r="O86" s="209"/>
       <c r="P86" s="9"/>
     </row>
     <row r="87" spans="1:16" ht="23.4">
       <c r="A87" s="8"/>
       <c r="B87" s="79"/>
       <c r="C87" s="79"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
+      <c r="D87" s="210"/>
+      <c r="E87" s="210"/>
       <c r="F87" s="81"/>
       <c r="G87" s="81"/>
       <c r="H87" s="81"/>
       <c r="I87" s="82"/>
       <c r="J87" s="81"/>
       <c r="K87" s="81"/>
-      <c r="L87" s="210"/>
-      <c r="M87" s="210"/>
-      <c r="N87" s="210"/>
-      <c r="O87" s="210"/>
+      <c r="L87" s="209"/>
+      <c r="M87" s="209"/>
+      <c r="N87" s="209"/>
+      <c r="O87" s="209"/>
       <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" ht="23.4">
@@ -5357,10 +5357,10 @@
       <c r="I88" s="82"/>
       <c r="J88" s="81"/>
       <c r="K88" s="81"/>
-      <c r="L88" s="210"/>
-      <c r="M88" s="210"/>
-      <c r="N88" s="210"/>
-      <c r="O88" s="210"/>
+      <c r="L88" s="209"/>
+      <c r="M88" s="209"/>
+      <c r="N88" s="209"/>
+      <c r="O88" s="209"/>
       <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" ht="16.2" thickBot="1">
@@ -5384,60 +5384,45 @@
     <row r="90" spans="1:16" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="L71:O72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="L62:O62"/>
     <mergeCell ref="L54:O54"/>
     <mergeCell ref="L55:O55"/>
     <mergeCell ref="L56:O57"/>
@@ -5452,45 +5437,60 @@
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="L53:O53"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="L71:O72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L17:O17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5543,54 +5543,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="165" t="str">
+      <c r="B1" s="156"/>
+      <c r="C1" s="159" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="166"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="173">
+      <c r="P2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="Q2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="Q2" s="168"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="A3" s="8"/>
@@ -5601,20 +5601,20 @@
       <c r="B4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
       <c r="O4" s="65" t="s">
         <v>22</v>
       </c>
@@ -5628,18 +5628,18 @@
       <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="157"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="61"/>
       <c r="P5" s="68"/>
       <c r="Q5" s="43"/>
@@ -5649,18 +5649,18 @@
       <c r="B6" s="67">
         <v>2</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="157"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
       <c r="O6" s="61"/>
       <c r="P6" s="68"/>
       <c r="Q6" s="43"/>
@@ -5670,18 +5670,18 @@
       <c r="B7" s="67">
         <v>3</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="157"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="172"/>
       <c r="O7" s="61"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="43"/>
@@ -5691,18 +5691,18 @@
       <c r="B8" s="67">
         <v>4</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="157"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="172"/>
       <c r="O8" s="61"/>
       <c r="P8" s="68"/>
       <c r="Q8" s="43"/>
@@ -5712,18 +5712,18 @@
       <c r="B9" s="67">
         <v>5</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="157"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="172"/>
       <c r="O9" s="61"/>
       <c r="P9" s="68"/>
       <c r="Q9" s="43"/>
@@ -5733,18 +5733,18 @@
       <c r="B10" s="67">
         <v>6</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="157"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
       <c r="O10" s="61"/>
       <c r="P10" s="68"/>
       <c r="Q10" s="43"/>
@@ -5754,18 +5754,18 @@
       <c r="B11" s="67">
         <v>7</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="172"/>
       <c r="O11" s="61"/>
       <c r="P11" s="68"/>
       <c r="Q11" s="43"/>
@@ -5775,18 +5775,18 @@
       <c r="B12" s="67">
         <v>8</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="157"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="172"/>
       <c r="O12" s="61"/>
       <c r="P12" s="68"/>
       <c r="Q12" s="43"/>
@@ -5796,18 +5796,18 @@
       <c r="B13" s="67">
         <v>9</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="157"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="172"/>
       <c r="O13" s="61"/>
       <c r="P13" s="68"/>
       <c r="Q13" s="43"/>
@@ -5817,18 +5817,18 @@
       <c r="B14" s="67">
         <v>10</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="157"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="172"/>
       <c r="O14" s="61"/>
       <c r="P14" s="68"/>
       <c r="Q14" s="43"/>
@@ -5838,18 +5838,18 @@
       <c r="B15" s="67">
         <v>11</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="157"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="172"/>
       <c r="O15" s="61"/>
       <c r="P15" s="68"/>
       <c r="Q15" s="43"/>
@@ -5859,18 +5859,18 @@
       <c r="B16" s="67">
         <v>12</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="157"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="172"/>
       <c r="O16" s="61"/>
       <c r="P16" s="68"/>
       <c r="Q16" s="43"/>
@@ -5880,18 +5880,18 @@
       <c r="B17" s="67">
         <v>13</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="172"/>
       <c r="O17" s="61"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="43"/>
@@ -5901,18 +5901,18 @@
       <c r="B18" s="67">
         <v>14</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="157"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="172"/>
       <c r="O18" s="61"/>
       <c r="P18" s="68"/>
       <c r="Q18" s="43"/>
@@ -5922,18 +5922,18 @@
       <c r="B19" s="67">
         <v>15</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="157"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="172"/>
       <c r="O19" s="61"/>
       <c r="P19" s="68"/>
       <c r="Q19" s="43"/>
@@ -5943,18 +5943,18 @@
       <c r="B20" s="67">
         <v>16</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="157"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="172"/>
       <c r="O20" s="61"/>
       <c r="P20" s="68"/>
       <c r="Q20" s="43"/>
@@ -5964,18 +5964,18 @@
       <c r="B21" s="67">
         <v>17</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="172"/>
       <c r="O21" s="61"/>
       <c r="P21" s="68"/>
       <c r="Q21" s="43"/>
@@ -5985,18 +5985,18 @@
       <c r="B22" s="67">
         <v>18</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="172"/>
       <c r="O22" s="61"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="43"/>
@@ -6006,18 +6006,18 @@
       <c r="B23" s="67">
         <v>19</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="172"/>
       <c r="O23" s="61"/>
       <c r="P23" s="68"/>
       <c r="Q23" s="43"/>
@@ -6027,18 +6027,18 @@
       <c r="B24" s="67">
         <v>20</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="157"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="172"/>
       <c r="O24" s="61"/>
       <c r="P24" s="68"/>
       <c r="Q24" s="43"/>
@@ -6048,18 +6048,18 @@
       <c r="B25" s="67">
         <v>21</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="157"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="172"/>
       <c r="O25" s="61"/>
       <c r="P25" s="68"/>
       <c r="Q25" s="43"/>
@@ -6069,18 +6069,18 @@
       <c r="B26" s="67">
         <v>22</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="157"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="172"/>
       <c r="O26" s="61"/>
       <c r="P26" s="68"/>
       <c r="Q26" s="43"/>
@@ -6090,18 +6090,18 @@
       <c r="B27" s="67">
         <v>23</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="157"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="172"/>
       <c r="O27" s="61"/>
       <c r="P27" s="68"/>
       <c r="Q27" s="43"/>
@@ -6111,18 +6111,18 @@
       <c r="B28" s="67">
         <v>24</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="172"/>
       <c r="O28" s="61"/>
       <c r="P28" s="68"/>
       <c r="Q28" s="43"/>
@@ -6132,18 +6132,18 @@
       <c r="B29" s="67">
         <v>25</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="157"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="172"/>
       <c r="O29" s="61"/>
       <c r="P29" s="68"/>
       <c r="Q29" s="43"/>
@@ -6153,18 +6153,18 @@
       <c r="B30" s="67">
         <v>26</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="157"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="172"/>
       <c r="O30" s="61"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="43"/>
@@ -6174,18 +6174,18 @@
       <c r="B31" s="67">
         <v>27</v>
       </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="157"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="172"/>
       <c r="O31" s="61"/>
       <c r="P31" s="68"/>
       <c r="Q31" s="43"/>
@@ -6195,18 +6195,18 @@
       <c r="B32" s="67">
         <v>28</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="157"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="172"/>
       <c r="O32" s="61"/>
       <c r="P32" s="68"/>
       <c r="Q32" s="43"/>
@@ -6216,18 +6216,18 @@
       <c r="B33" s="67">
         <v>29</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="157"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="172"/>
       <c r="O33" s="61"/>
       <c r="P33" s="68"/>
       <c r="Q33" s="43"/>
@@ -6237,18 +6237,18 @@
       <c r="B34" s="67">
         <v>30</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="157"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="172"/>
       <c r="O34" s="61"/>
       <c r="P34" s="68"/>
       <c r="Q34" s="43"/>
@@ -6258,18 +6258,18 @@
       <c r="B35" s="67">
         <v>31</v>
       </c>
-      <c r="C35" s="155"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="157"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="172"/>
       <c r="O35" s="61"/>
       <c r="P35" s="68"/>
       <c r="Q35" s="43"/>
@@ -6279,18 +6279,18 @@
       <c r="B36" s="67">
         <v>32</v>
       </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="157"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="171"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="172"/>
       <c r="O36" s="61"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="43"/>
@@ -6300,18 +6300,18 @@
       <c r="B37" s="67">
         <v>33</v>
       </c>
-      <c r="C37" s="155"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="157"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="172"/>
       <c r="O37" s="61"/>
       <c r="P37" s="68"/>
       <c r="Q37" s="43"/>
@@ -6321,18 +6321,18 @@
       <c r="B38" s="67">
         <v>34</v>
       </c>
-      <c r="C38" s="155"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="157"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="172"/>
       <c r="O38" s="61"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="43"/>
@@ -6342,18 +6342,18 @@
       <c r="B39" s="67">
         <v>35</v>
       </c>
-      <c r="C39" s="155"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="157"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="172"/>
       <c r="O39" s="61"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="43"/>
@@ -6363,18 +6363,18 @@
       <c r="B40" s="67">
         <v>36</v>
       </c>
-      <c r="C40" s="155"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
-      <c r="N40" s="157"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="171"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="172"/>
       <c r="O40" s="61"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="43"/>
@@ -6382,18 +6382,18 @@
     <row r="41" spans="1:17" ht="33" thickBot="1">
       <c r="A41" s="44"/>
       <c r="B41" s="70"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="159"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="160"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="175"/>
       <c r="O41" s="71"/>
       <c r="P41" s="72"/>
       <c r="Q41" s="43"/>
@@ -6463,41 +6463,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C34:N34"/>
     <mergeCell ref="C40:N40"/>
     <mergeCell ref="C41:N41"/>
     <mergeCell ref="C35:N35"/>
@@ -6505,6 +6470,41 @@
     <mergeCell ref="C37:N37"/>
     <mergeCell ref="C38:N38"/>
     <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C4:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6539,52 +6539,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="165" t="str">
+      <c r="B1" s="156"/>
+      <c r="C1" s="159" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
       <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="171"/>
-      <c r="O1" s="172"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="166"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
       <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="173">
+      <c r="N2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="O2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="O2" s="168"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
@@ -7439,44 +7439,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="43.05" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="165" t="str">
+      <c r="B1" s="156"/>
+      <c r="C1" s="159" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
       <c r="AH1" s="75" t="s">
         <v>11</v>
       </c>
@@ -7486,39 +7486,39 @@
       <c r="AL1" s="4"/>
     </row>
     <row r="2" spans="1:38" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
       <c r="AH2" s="76" t="s">
         <v>12</v>
       </c>
@@ -7837,54 +7837,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="165" t="str">
+      <c r="B1" s="156"/>
+      <c r="C1" s="159" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="166"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="173">
+      <c r="P2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="Q2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="Q2" s="168"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="8"/>
@@ -7893,18 +7893,18 @@
     <row r="4" spans="1:17" ht="25.8">
       <c r="A4" s="60"/>
       <c r="B4" s="125"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
       <c r="Q4" s="9"/>
@@ -7912,20 +7912,20 @@
     <row r="5" spans="1:17" s="2" customFormat="1" ht="32.4">
       <c r="A5" s="42"/>
       <c r="B5" s="125"/>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
       <c r="O5" s="127"/>
       <c r="P5" s="127"/>
       <c r="Q5" s="43"/>
@@ -7933,20 +7933,20 @@
     <row r="6" spans="1:17" ht="32.4">
       <c r="A6" s="44"/>
       <c r="B6" s="125"/>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
       <c r="O6" s="127"/>
       <c r="P6" s="127"/>
       <c r="Q6" s="43"/>
@@ -7954,18 +7954,18 @@
     <row r="7" spans="1:17" ht="32.4">
       <c r="A7" s="44"/>
       <c r="B7" s="125"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
       <c r="O7" s="127"/>
       <c r="P7" s="127"/>
       <c r="Q7" s="43"/>
@@ -7973,18 +7973,18 @@
     <row r="8" spans="1:17" ht="32.4">
       <c r="A8" s="44"/>
       <c r="B8" s="125"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
       <c r="O8" s="127"/>
       <c r="P8" s="127"/>
       <c r="Q8" s="43"/>
@@ -7992,18 +7992,18 @@
     <row r="9" spans="1:17" ht="32.4">
       <c r="A9" s="44"/>
       <c r="B9" s="125"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
       <c r="O9" s="127"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="43"/>
@@ -8011,18 +8011,18 @@
     <row r="10" spans="1:17" ht="32.4">
       <c r="A10" s="44"/>
       <c r="B10" s="125"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
       <c r="O10" s="127"/>
       <c r="P10" s="127"/>
       <c r="Q10" s="43"/>
@@ -8030,20 +8030,20 @@
     <row r="11" spans="1:17" ht="32.4">
       <c r="A11" s="44"/>
       <c r="B11" s="125"/>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="43"/>
@@ -8051,18 +8051,18 @@
     <row r="12" spans="1:17" ht="32.4">
       <c r="A12" s="44"/>
       <c r="B12" s="125"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="43"/>
@@ -8070,18 +8070,18 @@
     <row r="13" spans="1:17" ht="32.4">
       <c r="A13" s="44"/>
       <c r="B13" s="125"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="43"/>
@@ -8089,18 +8089,18 @@
     <row r="14" spans="1:17" ht="32.4">
       <c r="A14" s="44"/>
       <c r="B14" s="125"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="43"/>
@@ -8108,18 +8108,18 @@
     <row r="15" spans="1:17" ht="32.4">
       <c r="A15" s="44"/>
       <c r="B15" s="125"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="43"/>
@@ -8127,20 +8127,20 @@
     <row r="16" spans="1:17" ht="32.4">
       <c r="A16" s="44"/>
       <c r="B16" s="125"/>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
       <c r="O16" s="127"/>
       <c r="P16" s="127"/>
       <c r="Q16" s="43"/>
@@ -8148,18 +8148,18 @@
     <row r="17" spans="1:17" ht="32.4">
       <c r="A17" s="44"/>
       <c r="B17" s="125"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="127"/>
       <c r="P17" s="127"/>
       <c r="Q17" s="43"/>
@@ -8167,18 +8167,18 @@
     <row r="18" spans="1:17" ht="32.4">
       <c r="A18" s="44"/>
       <c r="B18" s="125"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
       <c r="O18" s="127"/>
       <c r="P18" s="127"/>
       <c r="Q18" s="43"/>
@@ -8186,18 +8186,18 @@
     <row r="19" spans="1:17" ht="32.4">
       <c r="A19" s="44"/>
       <c r="B19" s="128"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
       <c r="O19" s="127"/>
       <c r="P19" s="127"/>
       <c r="Q19" s="43"/>
@@ -8205,18 +8205,18 @@
     <row r="20" spans="1:17" ht="32.4">
       <c r="A20" s="44"/>
       <c r="B20" s="128"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
       <c r="O20" s="127"/>
       <c r="P20" s="127"/>
       <c r="Q20" s="43"/>
@@ -8224,20 +8224,20 @@
     <row r="21" spans="1:17" ht="32.4">
       <c r="A21" s="44"/>
       <c r="B21" s="128"/>
-      <c r="C21" s="182" t="s">
+      <c r="C21" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
       <c r="O21" s="127"/>
       <c r="P21" s="127"/>
       <c r="Q21" s="43"/>
@@ -8245,20 +8245,20 @@
     <row r="22" spans="1:17" ht="32.4">
       <c r="A22" s="44"/>
       <c r="B22" s="128"/>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
       <c r="O22" s="127"/>
       <c r="P22" s="127"/>
       <c r="Q22" s="43"/>
@@ -8266,18 +8266,18 @@
     <row r="23" spans="1:17" ht="32.4">
       <c r="A23" s="44"/>
       <c r="B23" s="128"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
       <c r="O23" s="127"/>
       <c r="P23" s="127"/>
       <c r="Q23" s="43"/>
@@ -8285,18 +8285,18 @@
     <row r="24" spans="1:17" ht="32.4">
       <c r="A24" s="44"/>
       <c r="B24" s="128"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
       <c r="O24" s="127"/>
       <c r="P24" s="127"/>
       <c r="Q24" s="43"/>
@@ -8304,18 +8304,18 @@
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="44"/>
       <c r="B25" s="128"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
       <c r="O25" s="127"/>
       <c r="P25" s="127"/>
       <c r="Q25" s="43"/>
@@ -8323,18 +8323,18 @@
     <row r="26" spans="1:17" ht="32.4">
       <c r="A26" s="44"/>
       <c r="B26" s="128"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
       <c r="O26" s="127"/>
       <c r="P26" s="127"/>
       <c r="Q26" s="43"/>
@@ -8342,18 +8342,18 @@
     <row r="27" spans="1:17" ht="32.4">
       <c r="A27" s="44"/>
       <c r="B27" s="128"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
       <c r="O27" s="127"/>
       <c r="P27" s="127"/>
       <c r="Q27" s="43"/>
@@ -8361,18 +8361,18 @@
     <row r="28" spans="1:17" ht="32.4">
       <c r="A28" s="44"/>
       <c r="B28" s="128"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
       <c r="O28" s="127"/>
       <c r="P28" s="127"/>
       <c r="Q28" s="43"/>
@@ -8380,18 +8380,18 @@
     <row r="29" spans="1:17" ht="32.4">
       <c r="A29" s="44"/>
       <c r="B29" s="128"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
       <c r="O29" s="127"/>
       <c r="P29" s="127"/>
       <c r="Q29" s="43"/>
@@ -8399,18 +8399,18 @@
     <row r="30" spans="1:17" ht="32.4">
       <c r="A30" s="44"/>
       <c r="B30" s="128"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
       <c r="O30" s="127"/>
       <c r="P30" s="127"/>
       <c r="Q30" s="43"/>
@@ -8418,18 +8418,18 @@
     <row r="31" spans="1:17" ht="32.4">
       <c r="A31" s="44"/>
       <c r="B31" s="128"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
       <c r="O31" s="127"/>
       <c r="P31" s="127"/>
       <c r="Q31" s="43"/>
@@ -8437,18 +8437,18 @@
     <row r="32" spans="1:17" ht="32.4">
       <c r="A32" s="44"/>
       <c r="B32" s="128"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
       <c r="O32" s="127"/>
       <c r="P32" s="127"/>
       <c r="Q32" s="43"/>
@@ -8456,18 +8456,18 @@
     <row r="33" spans="1:17" ht="32.4">
       <c r="A33" s="44"/>
       <c r="B33" s="128"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
       <c r="O33" s="127"/>
       <c r="P33" s="127"/>
       <c r="Q33" s="43"/>
@@ -8475,18 +8475,18 @@
     <row r="34" spans="1:17" ht="32.4">
       <c r="A34" s="44"/>
       <c r="B34" s="128"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="180"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="43"/>
@@ -8494,18 +8494,18 @@
     <row r="35" spans="1:17" ht="32.4">
       <c r="A35" s="44"/>
       <c r="B35" s="128"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="182"/>
       <c r="O35" s="127"/>
       <c r="P35" s="127"/>
       <c r="Q35" s="43"/>
@@ -8513,18 +8513,18 @@
     <row r="36" spans="1:17" ht="32.4">
       <c r="A36" s="44"/>
       <c r="B36" s="128"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="180"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="182"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="182"/>
       <c r="O36" s="127"/>
       <c r="P36" s="127"/>
       <c r="Q36" s="43"/>
@@ -8532,18 +8532,18 @@
     <row r="37" spans="1:17" ht="32.4">
       <c r="A37" s="44"/>
       <c r="B37" s="128"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="182"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="182"/>
       <c r="O37" s="127"/>
       <c r="P37" s="127"/>
       <c r="Q37" s="43"/>
@@ -8551,18 +8551,18 @@
     <row r="38" spans="1:17" ht="32.4">
       <c r="A38" s="44"/>
       <c r="B38" s="128"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="182"/>
+      <c r="L38" s="182"/>
+      <c r="M38" s="182"/>
+      <c r="N38" s="182"/>
       <c r="O38" s="127"/>
       <c r="P38" s="127"/>
       <c r="Q38" s="43"/>
@@ -8570,18 +8570,18 @@
     <row r="39" spans="1:17" ht="32.4">
       <c r="A39" s="44"/>
       <c r="B39" s="128"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="182"/>
+      <c r="L39" s="182"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="182"/>
       <c r="O39" s="127"/>
       <c r="P39" s="127"/>
       <c r="Q39" s="43"/>
@@ -8589,18 +8589,18 @@
     <row r="40" spans="1:17" ht="32.4">
       <c r="A40" s="44"/>
       <c r="B40" s="128"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="182"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="182"/>
       <c r="O40" s="127"/>
       <c r="P40" s="127"/>
       <c r="Q40" s="43"/>
@@ -8608,18 +8608,18 @@
     <row r="41" spans="1:17" ht="32.4">
       <c r="A41" s="44"/>
       <c r="B41" s="128"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="180"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
       <c r="O41" s="127"/>
       <c r="P41" s="127"/>
       <c r="Q41" s="43"/>
@@ -8689,78 +8689,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:N37"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:N41"/>
     <mergeCell ref="C38:F38"/>
@@ -8769,6 +8697,78 @@
     <mergeCell ref="G39:N39"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="G40:N40"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8792,54 +8792,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="165" t="str">
+      <c r="B1" s="156"/>
+      <c r="C1" s="159" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="166"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="173">
+      <c r="P2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="Q2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="Q2" s="168"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="A3" s="8"/>
@@ -8850,24 +8850,24 @@
       <c r="B4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="186" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="188"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="193"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="32.4">
@@ -8875,20 +8875,20 @@
       <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="189"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="194"/>
       <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="32.4">
@@ -8896,20 +8896,20 @@
       <c r="B6" s="67">
         <v>2</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="189"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="194"/>
       <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="32.4">
@@ -8917,20 +8917,20 @@
       <c r="B7" s="67">
         <v>3</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="189"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="194"/>
       <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="32.4">
@@ -8938,20 +8938,20 @@
       <c r="B8" s="67">
         <v>4</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="189"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="194"/>
       <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:17" ht="32.4">
@@ -8959,20 +8959,20 @@
       <c r="B9" s="67">
         <v>5</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="189"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="194"/>
       <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="32.4">
@@ -8980,20 +8980,20 @@
       <c r="B10" s="67">
         <v>6</v>
       </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="189"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="194"/>
       <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17" ht="32.4">
@@ -9001,20 +9001,20 @@
       <c r="B11" s="67">
         <v>7</v>
       </c>
-      <c r="C11" s="190"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="189"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="194"/>
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" ht="32.4">
@@ -9022,20 +9022,20 @@
       <c r="B12" s="67">
         <v>8</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
-      <c r="O12" s="192"/>
-      <c r="P12" s="193"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="190"/>
       <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:17" ht="32.4">
@@ -9043,20 +9043,20 @@
       <c r="B13" s="67">
         <v>9</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="192"/>
-      <c r="P13" s="193"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="190"/>
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" ht="32.4">
@@ -9064,20 +9064,20 @@
       <c r="B14" s="67">
         <v>10</v>
       </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="192"/>
-      <c r="P14" s="193"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="190"/>
       <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="1:17" ht="32.4">
@@ -9085,20 +9085,20 @@
       <c r="B15" s="67">
         <v>11</v>
       </c>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="193"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
       <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="1:17" ht="32.4">
@@ -9106,20 +9106,20 @@
       <c r="B16" s="67">
         <v>12</v>
       </c>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="193"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="190"/>
       <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="1:17" ht="32.4">
@@ -9127,20 +9127,20 @@
       <c r="B17" s="67">
         <v>13</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="193"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="190"/>
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" ht="32.4">
@@ -9148,20 +9148,20 @@
       <c r="B18" s="67">
         <v>14</v>
       </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="193"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="190"/>
       <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="32.4">
@@ -9169,20 +9169,20 @@
       <c r="B19" s="67">
         <v>15</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="192"/>
-      <c r="P19" s="193"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="190"/>
       <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="32.4">
@@ -9190,20 +9190,20 @@
       <c r="B20" s="67">
         <v>16</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="193"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="190"/>
       <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="32.4">
@@ -9211,20 +9211,20 @@
       <c r="B21" s="67">
         <v>17</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="193"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="190"/>
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="32.4">
@@ -9232,20 +9232,20 @@
       <c r="B22" s="67">
         <v>18</v>
       </c>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
-      <c r="P22" s="193"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="190"/>
       <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="32.4">
@@ -9253,20 +9253,20 @@
       <c r="B23" s="67">
         <v>19</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
-      <c r="P23" s="193"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="189"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="190"/>
       <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="32.4">
@@ -9274,20 +9274,20 @@
       <c r="B24" s="67">
         <v>20</v>
       </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="192"/>
-      <c r="P24" s="193"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="190"/>
       <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="32.4">
@@ -9295,20 +9295,20 @@
       <c r="B25" s="67">
         <v>21</v>
       </c>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
-      <c r="P25" s="193"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="189"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="190"/>
       <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="32.4">
@@ -9316,20 +9316,20 @@
       <c r="B26" s="67">
         <v>22</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="193"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="190"/>
       <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="32.4">
@@ -9337,20 +9337,20 @@
       <c r="B27" s="67">
         <v>23</v>
       </c>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="192"/>
-      <c r="P27" s="193"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="189"/>
+      <c r="O27" s="189"/>
+      <c r="P27" s="190"/>
       <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="1:17" ht="32.4">
@@ -9358,20 +9358,20 @@
       <c r="B28" s="67">
         <v>24</v>
       </c>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="193"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="190"/>
       <c r="Q28" s="43"/>
     </row>
     <row r="29" spans="1:17" ht="32.4">
@@ -9379,20 +9379,20 @@
       <c r="B29" s="67">
         <v>25</v>
       </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
-      <c r="P29" s="193"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="190"/>
       <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:17" ht="32.4">
@@ -9400,20 +9400,20 @@
       <c r="B30" s="67">
         <v>26</v>
       </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="192"/>
-      <c r="P30" s="193"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="189"/>
+      <c r="P30" s="190"/>
       <c r="Q30" s="43"/>
     </row>
     <row r="31" spans="1:17" ht="32.4">
@@ -9421,20 +9421,20 @@
       <c r="B31" s="67">
         <v>27</v>
       </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="192"/>
-      <c r="P31" s="193"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="190"/>
       <c r="Q31" s="43"/>
     </row>
     <row r="32" spans="1:17" ht="32.4">
@@ -9442,20 +9442,20 @@
       <c r="B32" s="67">
         <v>28</v>
       </c>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="193"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="190"/>
       <c r="Q32" s="43"/>
     </row>
     <row r="33" spans="1:17" ht="32.4">
@@ -9463,20 +9463,20 @@
       <c r="B33" s="67">
         <v>29</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="193"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="189"/>
+      <c r="P33" s="190"/>
       <c r="Q33" s="43"/>
     </row>
     <row r="34" spans="1:17" ht="32.4">
@@ -9484,20 +9484,20 @@
       <c r="B34" s="67">
         <v>30</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="192"/>
-      <c r="P34" s="193"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="189"/>
+      <c r="M34" s="189"/>
+      <c r="N34" s="189"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="190"/>
       <c r="Q34" s="43"/>
     </row>
     <row r="35" spans="1:17" ht="32.4">
@@ -9505,20 +9505,20 @@
       <c r="B35" s="67">
         <v>31</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="192"/>
-      <c r="P35" s="193"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="189"/>
+      <c r="O35" s="189"/>
+      <c r="P35" s="190"/>
       <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:17" ht="32.4">
@@ -9526,20 +9526,20 @@
       <c r="B36" s="67">
         <v>32</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="192"/>
-      <c r="P36" s="193"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="189"/>
+      <c r="P36" s="190"/>
       <c r="Q36" s="43"/>
     </row>
     <row r="37" spans="1:17" ht="32.4">
@@ -9547,20 +9547,20 @@
       <c r="B37" s="67">
         <v>33</v>
       </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="193"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="189"/>
+      <c r="M37" s="189"/>
+      <c r="N37" s="189"/>
+      <c r="O37" s="189"/>
+      <c r="P37" s="190"/>
       <c r="Q37" s="43"/>
     </row>
     <row r="38" spans="1:17" ht="32.4">
@@ -9568,20 +9568,20 @@
       <c r="B38" s="67">
         <v>34</v>
       </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="192"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="192"/>
-      <c r="M38" s="192"/>
-      <c r="N38" s="192"/>
-      <c r="O38" s="192"/>
-      <c r="P38" s="193"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="190"/>
       <c r="Q38" s="43"/>
     </row>
     <row r="39" spans="1:17" ht="32.4">
@@ -9589,20 +9589,20 @@
       <c r="B39" s="67">
         <v>35</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="192"/>
-      <c r="P39" s="193"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="189"/>
+      <c r="L39" s="189"/>
+      <c r="M39" s="189"/>
+      <c r="N39" s="189"/>
+      <c r="O39" s="189"/>
+      <c r="P39" s="190"/>
       <c r="Q39" s="43"/>
     </row>
     <row r="40" spans="1:17" ht="32.4">
@@ -9610,39 +9610,39 @@
       <c r="B40" s="67">
         <v>36</v>
       </c>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="192"/>
-      <c r="K40" s="192"/>
-      <c r="L40" s="192"/>
-      <c r="M40" s="192"/>
-      <c r="N40" s="192"/>
-      <c r="O40" s="192"/>
-      <c r="P40" s="193"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="189"/>
+      <c r="L40" s="189"/>
+      <c r="M40" s="189"/>
+      <c r="N40" s="189"/>
+      <c r="O40" s="189"/>
+      <c r="P40" s="190"/>
       <c r="Q40" s="43"/>
     </row>
     <row r="41" spans="1:17" ht="33" thickBot="1">
       <c r="A41" s="44"/>
       <c r="B41" s="70"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="159"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="159"/>
-      <c r="O41" s="159"/>
-      <c r="P41" s="184"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="191"/>
       <c r="Q41" s="43"/>
     </row>
     <row r="42" spans="1:17">
@@ -9710,70 +9710,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G12:P12"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="G16:P16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="G18:P18"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:P20"/>
-    <mergeCell ref="G21:P21"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G23:P23"/>
-    <mergeCell ref="G24:P24"/>
-    <mergeCell ref="G25:P25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G29:P29"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G32:P32"/>
-    <mergeCell ref="G33:P33"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="G36:P36"/>
-    <mergeCell ref="G37:P37"/>
     <mergeCell ref="G41:P41"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G4:P4"/>
@@ -9790,6 +9726,70 @@
     <mergeCell ref="G38:P38"/>
     <mergeCell ref="G39:P39"/>
     <mergeCell ref="G40:P40"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G36:P36"/>
+    <mergeCell ref="G37:P37"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="G33:P33"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="G25:P25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="G21:P21"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="G18:P18"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G12:P12"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9813,54 +9813,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.05" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="165" t="str">
+      <c r="B1" s="156"/>
+      <c r="C1" s="159" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="166"/>
     </row>
     <row r="2" spans="1:17" ht="43.05" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
       <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="173">
+      <c r="P2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="Q2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="Q2" s="168"/>
     </row>
     <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="A3" s="8"/>
@@ -9871,22 +9871,22 @@
       <c r="B4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="186" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="194"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="186"/>
       <c r="O4" s="65" t="s">
         <v>27</v>
       </c>
@@ -9900,18 +9900,18 @@
       <c r="B5" s="67">
         <v>1</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
       <c r="O5" s="61"/>
       <c r="P5" s="68"/>
       <c r="Q5" s="43"/>
@@ -9921,18 +9921,18 @@
       <c r="B6" s="67">
         <v>2</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
       <c r="O6" s="61"/>
       <c r="P6" s="68"/>
       <c r="Q6" s="43"/>
@@ -9942,18 +9942,18 @@
       <c r="B7" s="67">
         <v>3</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="61"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="43"/>
@@ -9963,18 +9963,18 @@
       <c r="B8" s="67">
         <v>4</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="190"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
       <c r="O8" s="61"/>
       <c r="P8" s="68"/>
       <c r="Q8" s="43"/>
@@ -9984,18 +9984,18 @@
       <c r="B9" s="67">
         <v>5</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="61"/>
       <c r="P9" s="68"/>
       <c r="Q9" s="43"/>
@@ -10005,18 +10005,18 @@
       <c r="B10" s="67">
         <v>6</v>
       </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="190"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
       <c r="O10" s="61"/>
       <c r="P10" s="68"/>
       <c r="Q10" s="43"/>
@@ -10026,18 +10026,18 @@
       <c r="B11" s="67">
         <v>7</v>
       </c>
-      <c r="C11" s="190"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
       <c r="O11" s="61"/>
       <c r="P11" s="68"/>
       <c r="Q11" s="43"/>
@@ -10047,18 +10047,18 @@
       <c r="B12" s="67">
         <v>8</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="61"/>
       <c r="P12" s="68"/>
       <c r="Q12" s="43"/>
@@ -10068,18 +10068,18 @@
       <c r="B13" s="67">
         <v>9</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
       <c r="O13" s="61"/>
       <c r="P13" s="68"/>
       <c r="Q13" s="43"/>
@@ -10089,18 +10089,18 @@
       <c r="B14" s="67">
         <v>10</v>
       </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
       <c r="O14" s="61"/>
       <c r="P14" s="68"/>
       <c r="Q14" s="43"/>
@@ -10110,18 +10110,18 @@
       <c r="B15" s="67">
         <v>11</v>
       </c>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
       <c r="O15" s="61"/>
       <c r="P15" s="68"/>
       <c r="Q15" s="43"/>
@@ -10131,18 +10131,18 @@
       <c r="B16" s="67">
         <v>12</v>
       </c>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
       <c r="O16" s="61"/>
       <c r="P16" s="68"/>
       <c r="Q16" s="43"/>
@@ -10152,18 +10152,18 @@
       <c r="B17" s="67">
         <v>13</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="190"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="61"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="43"/>
@@ -10173,18 +10173,18 @@
       <c r="B18" s="67">
         <v>14</v>
       </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="190"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
       <c r="O18" s="61"/>
       <c r="P18" s="68"/>
       <c r="Q18" s="43"/>
@@ -10192,18 +10192,18 @@
     <row r="19" spans="1:17" ht="32.4">
       <c r="A19" s="44"/>
       <c r="B19" s="69"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
       <c r="O19" s="61"/>
       <c r="P19" s="68"/>
       <c r="Q19" s="43"/>
@@ -10211,18 +10211,18 @@
     <row r="20" spans="1:17" ht="32.4">
       <c r="A20" s="44"/>
       <c r="B20" s="69"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
       <c r="O20" s="61"/>
       <c r="P20" s="68"/>
       <c r="Q20" s="43"/>
@@ -10230,18 +10230,18 @@
     <row r="21" spans="1:17" ht="32.4">
       <c r="A21" s="44"/>
       <c r="B21" s="69"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
       <c r="O21" s="61"/>
       <c r="P21" s="68"/>
       <c r="Q21" s="43"/>
@@ -10249,18 +10249,18 @@
     <row r="22" spans="1:17" ht="32.4">
       <c r="A22" s="44"/>
       <c r="B22" s="69"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="61"/>
       <c r="P22" s="68"/>
       <c r="Q22" s="43"/>
@@ -10268,18 +10268,18 @@
     <row r="23" spans="1:17" ht="32.4">
       <c r="A23" s="44"/>
       <c r="B23" s="69"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="190"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
       <c r="O23" s="61"/>
       <c r="P23" s="68"/>
       <c r="Q23" s="43"/>
@@ -10287,18 +10287,18 @@
     <row r="24" spans="1:17" ht="32.4">
       <c r="A24" s="44"/>
       <c r="B24" s="69"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
       <c r="O24" s="61"/>
       <c r="P24" s="68"/>
       <c r="Q24" s="43"/>
@@ -10306,18 +10306,18 @@
     <row r="25" spans="1:17" ht="32.4">
       <c r="A25" s="44"/>
       <c r="B25" s="69"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="190"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
       <c r="O25" s="61"/>
       <c r="P25" s="68"/>
       <c r="Q25" s="43"/>
@@ -10325,18 +10325,18 @@
     <row r="26" spans="1:17" ht="32.4">
       <c r="A26" s="44"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
       <c r="O26" s="61"/>
       <c r="P26" s="68"/>
       <c r="Q26" s="43"/>
@@ -10344,18 +10344,18 @@
     <row r="27" spans="1:17" ht="32.4">
       <c r="A27" s="44"/>
       <c r="B27" s="69"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="190"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="61"/>
       <c r="P27" s="68"/>
       <c r="Q27" s="43"/>
@@ -10363,18 +10363,18 @@
     <row r="28" spans="1:17" ht="32.4">
       <c r="A28" s="44"/>
       <c r="B28" s="69"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="61"/>
       <c r="P28" s="68"/>
       <c r="Q28" s="43"/>
@@ -10382,18 +10382,18 @@
     <row r="29" spans="1:17" ht="32.4">
       <c r="A29" s="44"/>
       <c r="B29" s="69"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
       <c r="O29" s="61"/>
       <c r="P29" s="68"/>
       <c r="Q29" s="43"/>
@@ -10401,18 +10401,18 @@
     <row r="30" spans="1:17" ht="32.4">
       <c r="A30" s="44"/>
       <c r="B30" s="69"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="190"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
       <c r="O30" s="61"/>
       <c r="P30" s="68"/>
       <c r="Q30" s="43"/>
@@ -10420,18 +10420,18 @@
     <row r="31" spans="1:17" ht="32.4">
       <c r="A31" s="44"/>
       <c r="B31" s="69"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
       <c r="O31" s="61"/>
       <c r="P31" s="68"/>
       <c r="Q31" s="43"/>
@@ -10439,18 +10439,18 @@
     <row r="32" spans="1:17" ht="32.4">
       <c r="A32" s="44"/>
       <c r="B32" s="69"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
       <c r="O32" s="61"/>
       <c r="P32" s="68"/>
       <c r="Q32" s="43"/>
@@ -10458,18 +10458,18 @@
     <row r="33" spans="1:17" ht="32.4">
       <c r="A33" s="44"/>
       <c r="B33" s="69"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
       <c r="O33" s="61"/>
       <c r="P33" s="68"/>
       <c r="Q33" s="43"/>
@@ -10477,18 +10477,18 @@
     <row r="34" spans="1:17" ht="32.4">
       <c r="A34" s="44"/>
       <c r="B34" s="69"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="190"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187"/>
       <c r="O34" s="61"/>
       <c r="P34" s="68"/>
       <c r="Q34" s="43"/>
@@ -10496,18 +10496,18 @@
     <row r="35" spans="1:17" ht="32.4">
       <c r="A35" s="44"/>
       <c r="B35" s="69"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="190"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
       <c r="O35" s="61"/>
       <c r="P35" s="68"/>
       <c r="Q35" s="43"/>
@@ -10515,18 +10515,18 @@
     <row r="36" spans="1:17" ht="32.4">
       <c r="A36" s="44"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="187"/>
       <c r="O36" s="61"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="43"/>
@@ -10534,18 +10534,18 @@
     <row r="37" spans="1:17" ht="32.4">
       <c r="A37" s="44"/>
       <c r="B37" s="69"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="190"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="187"/>
       <c r="O37" s="61"/>
       <c r="P37" s="68"/>
       <c r="Q37" s="43"/>
@@ -10553,18 +10553,18 @@
     <row r="38" spans="1:17" ht="32.4">
       <c r="A38" s="44"/>
       <c r="B38" s="69"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="187"/>
       <c r="O38" s="61"/>
       <c r="P38" s="68"/>
       <c r="Q38" s="43"/>
@@ -10572,18 +10572,18 @@
     <row r="39" spans="1:17" ht="32.4">
       <c r="A39" s="44"/>
       <c r="B39" s="69"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="190"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="187"/>
+      <c r="N39" s="187"/>
       <c r="O39" s="61"/>
       <c r="P39" s="68"/>
       <c r="Q39" s="43"/>
@@ -10591,18 +10591,18 @@
     <row r="40" spans="1:17" ht="32.4">
       <c r="A40" s="44"/>
       <c r="B40" s="69"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="190"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="187"/>
       <c r="O40" s="61"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="43"/>
@@ -10610,18 +10610,18 @@
     <row r="41" spans="1:17" ht="33" thickBot="1">
       <c r="A41" s="44"/>
       <c r="B41" s="70"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
-      <c r="L41" s="185"/>
-      <c r="M41" s="185"/>
-      <c r="N41" s="185"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="192"/>
       <c r="O41" s="71"/>
       <c r="P41" s="72"/>
       <c r="Q41" s="43"/>
@@ -10691,6 +10691,78 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:N11"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="A1:B2"/>
@@ -10699,78 +10771,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:N4"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:N41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10798,10 +10798,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="203" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -10824,12 +10824,12 @@
       <c r="S1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="166"/>
     </row>
     <row r="2" spans="1:22" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="205"/>
       <c r="D2" s="206"/>
       <c r="E2" s="206"/>
@@ -10849,11 +10849,11 @@
       <c r="S2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="173">
+      <c r="T2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="U2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="U2" s="168"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="8"/>
@@ -11210,10 +11210,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="203" t="str">
         <f>表紙!C7</f>
         <v>プロジェクト名</v>
@@ -11236,12 +11236,12 @@
       <c r="S1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="166"/>
     </row>
     <row r="2" spans="1:22" ht="34.049999999999997" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="205"/>
       <c r="D2" s="206"/>
       <c r="E2" s="206"/>
@@ -11261,11 +11261,11 @@
       <c r="S2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="173">
+      <c r="T2" s="167">
         <f ca="1">NOW()</f>
-        <v>44836.640478819441</v>
-      </c>
-      <c r="U2" s="174"/>
+        <v>44836.708237268518</v>
+      </c>
+      <c r="U2" s="168"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="8"/>
